--- a/staff/data/product_item.xlsx
+++ b/staff/data/product_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BD645-B2F4-4FE6-BD70-1C26E49DCB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F513D-F25B-4216-AF19-A01D075B3309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductItem" sheetId="2" r:id="rId1"/>
@@ -2617,7 +2617,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2952,7 +2952,9 @@
       <c r="I5" s="5">
         <v>100</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
       <c r="K5" s="11">
         <v>44276.375</v>
       </c>
@@ -3008,7 +3010,9 @@
       <c r="I6" s="5">
         <v>100</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
       <c r="K6" s="11">
         <v>44277.375</v>
       </c>
@@ -3120,7 +3124,9 @@
       <c r="I8" s="5">
         <v>100</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
       <c r="K8" s="11">
         <v>44276.375</v>
       </c>
@@ -3176,7 +3182,9 @@
       <c r="I9" s="5">
         <v>100</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
       <c r="K9" s="11">
         <v>44277.375</v>
       </c>

--- a/staff/data/product_item.xlsx
+++ b/staff/data/product_item.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\django\staff\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F513D-F25B-4216-AF19-A01D075B3309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CB6A14-8B5E-4243-A595-214269B8631B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="4365" windowWidth="24510" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductItem" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>브랜드</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1541,6 +1541,42 @@
   </si>
   <si>
     <t>2skksmdmaasdsasad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wqasdffsad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzxccxz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqwqd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>21ew1dwads</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aacxcacaxq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7t9hwjiowfpw</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdassccczxcxz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidding</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2616,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2746,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>400</v>
+        <v>1500000</v>
       </c>
       <c r="F2" s="4">
         <v>2020.01</v>
@@ -2804,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>400</v>
+        <v>1500000</v>
       </c>
       <c r="F3" s="4">
         <v>2020.01</v>
@@ -2880,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>400</v>
+        <v>1500000</v>
       </c>
       <c r="F4" s="4">
         <v>2020.01</v>
@@ -2938,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>600</v>
+        <v>1600000</v>
       </c>
       <c r="F5" s="4">
         <v>2020.01</v>
@@ -2996,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>600</v>
+        <v>1600000</v>
       </c>
       <c r="F6" s="4">
         <v>2020.01</v>
@@ -3054,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>600</v>
+        <v>1600000</v>
       </c>
       <c r="F7" s="4">
         <v>2020.01</v>
@@ -3110,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>800</v>
+        <v>600000</v>
       </c>
       <c r="F8" s="4">
         <v>2020.01</v>
@@ -3168,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>800</v>
+        <v>600000</v>
       </c>
       <c r="F9" s="4">
         <v>2020.01</v>
@@ -3226,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>800</v>
+        <v>600000</v>
       </c>
       <c r="F10" s="4">
         <v>2020.01</v>
@@ -3235,7 +3271,10 @@
       <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="str">
+        <f>IF(H10="bidding", E10*0.7, "")</f>
+        <v/>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3243,13 +3282,13 @@
         <v>220</v>
       </c>
       <c r="N10" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O10" s="12">
         <v>250</v>
       </c>
       <c r="P10" s="12">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -3269,18 +3308,41 @@
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11:I24" si="0">IF(H11="bidding", E11*0.7, "")</f>
+        <v>1260000</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L11" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -3303,22 +3365,47 @@
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="M12" s="12">
+        <v>220</v>
+      </c>
+      <c r="N12" s="12">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12">
+        <v>250</v>
+      </c>
+      <c r="P12" s="12">
+        <v>50</v>
+      </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
@@ -3337,18 +3424,41 @@
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>2800000</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L13" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -3371,22 +3481,47 @@
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="M14" s="12">
+        <v>220</v>
+      </c>
+      <c r="N14" s="12">
+        <v>10</v>
+      </c>
+      <c r="O14" s="12">
+        <v>250</v>
+      </c>
+      <c r="P14" s="12">
+        <v>50</v>
+      </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -3405,18 +3540,41 @@
       <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2300000</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>1610000</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K15" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L15" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -3439,22 +3597,47 @@
       <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2300000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="M16" s="12">
+        <v>220</v>
+      </c>
+      <c r="N16" s="12">
+        <v>10</v>
+      </c>
+      <c r="O16" s="12">
+        <v>250</v>
+      </c>
+      <c r="P16" s="12">
+        <v>50</v>
+      </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -3473,18 +3656,41 @@
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="H17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
+        <v>910000</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L17" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3507,22 +3713,47 @@
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="M18" s="12">
+        <v>220</v>
+      </c>
+      <c r="N18" s="12">
+        <v>10</v>
+      </c>
+      <c r="O18" s="12">
+        <v>250</v>
+      </c>
+      <c r="P18" s="12">
+        <v>50</v>
+      </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
@@ -3541,18 +3772,41 @@
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K19" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L19" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -3575,22 +3829,47 @@
       <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="M20" s="12">
+        <v>220</v>
+      </c>
+      <c r="N20" s="12">
+        <v>10</v>
+      </c>
+      <c r="O20" s="12">
+        <v>250</v>
+      </c>
+      <c r="P20" s="12">
+        <v>50</v>
+      </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
@@ -3609,18 +3888,41 @@
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L21" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -3643,22 +3945,47 @@
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="M22" s="12">
+        <v>220</v>
+      </c>
+      <c r="N22" s="12">
+        <v>10</v>
+      </c>
+      <c r="O22" s="12">
+        <v>250</v>
+      </c>
+      <c r="P22" s="12">
+        <v>50</v>
+      </c>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -3677,18 +4004,41 @@
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="0"/>
+        <v>1260000</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K23" s="11">
+        <v>44277.375</v>
+      </c>
+      <c r="L23" s="11">
+        <v>44277.625</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -3711,22 +4061,47 @@
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2020.01</v>
+      </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="M24" s="12">
+        <v>220</v>
+      </c>
+      <c r="N24" s="12">
+        <v>10</v>
+      </c>
+      <c r="O24" s="12">
+        <v>250</v>
+      </c>
+      <c r="P24" s="12">
+        <v>50</v>
+      </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
